--- a/Orbita/testDate/TC001_Createlead.xlsx
+++ b/Orbita/testDate/TC001_Createlead.xlsx
@@ -1,42 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>testleaf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t/>
   </si>
   <si>
     <t>gnana</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>sekar</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ameex</t>
+  </si>
+  <si>
+    <t>tgs</t>
+  </si>
+  <si>
+    <t>NewCompanyName</t>
+  </si>
+  <si>
+    <t>Ameexusa1</t>
+  </si>
+  <si>
+    <t>Ameexusa2</t>
   </si>
 </sst>
 </file>
@@ -72,14 +87,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,50 +393,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -428,12 +456,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
